--- a/medicine/Handicap/Fondation_Serge-Dassault/Fondation_Serge-Dassault.xlsx
+++ b/medicine/Handicap/Fondation_Serge-Dassault/Fondation_Serge-Dassault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association des amis de la fondation Serge-Dassault est une association française créée en 1993 par l'industriel et homme politique Serge Dassault. Elle a pour vocation initiale d’offrir un accueil et une assistance adaptés aux personnes adultes en situation de handicap. 
 </t>
@@ -511,12 +523,14 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fondation[1] a été reconnue d'utilité publique par un décret du 16 février 1993[2]. 
-Elle compte trois établissements : deux à Corbeil-Essonnes[3], un à Mennecy.
-En février 2016, octobre 2016 et juin 2017, à l'initiative des syndicats CGT, CFDT et Sud Solidaires, des salariés de la fondation Serge-Dassault font grève, dénonçant « tant les conditions de travail des employés que celles des résidents en situation de handicap », ainsi que l'attitude de la direction, du maire de Corbeil-Essonnes Jean-Pierre Bechter et de l'ancien maire Serge Dassault[4],[5],[6].
-Jean-Pierre Bechter, ancien directeur de la fondation, est condamné en 2019 à verser des dommages et intérêts aux syndicats qui avaient déposé plainte pour délit d’entrave au fonctionnement du comité d’entreprise[7]. Ancien maire de Corbeil-Essonnes, « bras droit de Serge Dassault », il est également condamné en 2020 à deux ans de prison pour achat de votes et financement illégal de campagne électorale[8],[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fondation a été reconnue d'utilité publique par un décret du 16 février 1993. 
+Elle compte trois établissements : deux à Corbeil-Essonnes, un à Mennecy.
+En février 2016, octobre 2016 et juin 2017, à l'initiative des syndicats CGT, CFDT et Sud Solidaires, des salariés de la fondation Serge-Dassault font grève, dénonçant « tant les conditions de travail des employés que celles des résidents en situation de handicap », ainsi que l'attitude de la direction, du maire de Corbeil-Essonnes Jean-Pierre Bechter et de l'ancien maire Serge Dassault.
+Jean-Pierre Bechter, ancien directeur de la fondation, est condamné en 2019 à verser des dommages et intérêts aux syndicats qui avaient déposé plainte pour délit d’entrave au fonctionnement du comité d’entreprise. Ancien maire de Corbeil-Essonnes, « bras droit de Serge Dassault », il est également condamné en 2020 à deux ans de prison pour achat de votes et financement illégal de campagne électorale.
 </t>
         </is>
       </c>
